--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/4.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/4.xlsx
@@ -748,10 +748,10 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>117</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>106.43</v>
       </c>
     </row>
